--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.21.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.21.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="17">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -80,8 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -168,7 +166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,6 +191,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -213,7 +215,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H19"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,11 +296,11 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="I2" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,11 +328,11 @@
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
+      <c r="I3" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,11 +360,11 @@
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
+      <c r="I4" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,11 +392,11 @@
       <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
+      <c r="I5" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,11 +424,11 @@
       <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>15</v>
+      <c r="I6" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,16 +456,16 @@
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
+      <c r="I7" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -486,16 +488,16 @@
       <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>15</v>
+      <c r="I8" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -518,16 +520,16 @@
       <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
+      <c r="I9" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -550,16 +552,16 @@
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>15</v>
+      <c r="I10" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -582,16 +584,16 @@
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
+      <c r="I11" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -614,16 +616,16 @@
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
+      <c r="I12" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -646,16 +648,16 @@
       <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
+      <c r="I13" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -678,16 +680,16 @@
       <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
+      <c r="I14" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -710,16 +712,16 @@
       <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>15</v>
+      <c r="I15" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -742,16 +744,16 @@
       <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>15</v>
+      <c r="I16" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -774,16 +776,16 @@
       <c r="H17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>15</v>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -806,16 +808,16 @@
       <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>15</v>
+      <c r="I18" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -838,11 +840,11 @@
       <c r="H19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>15</v>
+      <c r="I19" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.21.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.21.19.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">08.21.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -215,12 +215,14 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I19"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,7 +298,8 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="b">
+      <c r="I2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -322,13 +325,14 @@
       <c r="F3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="b">
+      <c r="I3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -354,13 +358,14 @@
       <c r="F4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="b">
+      <c r="I4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -386,13 +391,14 @@
       <c r="F5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="b">
+      <c r="I5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -418,13 +424,14 @@
       <c r="F6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -450,13 +457,14 @@
       <c r="F7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="b">
+      <c r="I7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -482,13 +490,14 @@
       <c r="F8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="b">
+      <c r="I8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -514,13 +523,14 @@
       <c r="F9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="b">
+      <c r="I9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -546,13 +556,14 @@
       <c r="F10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="6" t="b">
+      <c r="I10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -578,13 +589,14 @@
       <c r="F11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6" t="b">
+      <c r="I11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -610,13 +622,14 @@
       <c r="F12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="6" t="b">
+      <c r="I12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -642,13 +655,14 @@
       <c r="F13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6" t="b">
+      <c r="I13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -674,13 +688,14 @@
       <c r="F14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="6" t="b">
+      <c r="I14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -706,13 +721,14 @@
       <c r="F15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="6" t="b">
+      <c r="I15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -738,13 +754,14 @@
       <c r="F16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="6" t="b">
+      <c r="I16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -770,13 +787,14 @@
       <c r="F17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="6" t="b">
+      <c r="I17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -802,13 +820,14 @@
       <c r="F18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="6" t="b">
+      <c r="I18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -834,13 +853,14 @@
       <c r="F19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="6" t="b">
+      <c r="I19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.21.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.21.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">08.21.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -214,8 +214,8 @@
   </sheetPr>
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.21.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.21.19.xlsx
@@ -81,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -109,6 +109,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -166,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,11 +182,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,7 +198,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,7 +236,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -247,7 +258,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -274,13 +285,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -289,16 +300,16 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6" t="n">
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -307,563 +318,563 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="n">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="n">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="n">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="n">
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="n">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="n">
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="n">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="n">
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="n">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="n">
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="n">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="n">
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="H13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="n">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="H14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="n">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="n">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="n">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="H15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="n">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="H16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="n">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="n">
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="H17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="n">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3" t="n">
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="H18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="n">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="n">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="n">
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="n">
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="H19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
